--- a/BalanceSheet/ENPH_bal.xlsx
+++ b/BalanceSheet/ENPH_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>6888000.0</v>
+        <v>35000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-4229000.0</v>
+        <v>42000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-6349000.0</v>
+        <v>38000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>3430000.0</v>
+        <v>31000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-2560000.0</v>
+        <v>35000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>32056000.0</v>
@@ -2207,19 +2207,19 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>36376000.0</v>
+        <v>82000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>44895000.0</v>
+        <v>73000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>26189000.0</v>
+        <v>48000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>-13323000.0</v>
+        <v>24000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>-22066000.0</v>
+        <v>35000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>57474000.0</v>
@@ -3263,19 +3263,19 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>-35367000.0</v>
+        <v>-132000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>-2610000.0</v>
+        <v>-93000000.0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>5060000.0</v>
+        <v>-89000000.0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>-7067000.0</v>
+        <v>-94000000.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>-12500000.0</v>
+        <v>-87000000.0</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>-75000000.0</v>
@@ -5310,7 +5310,7 @@
         <v>-184000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>-178000000.0</v>
+        <v>-190566000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>-98984000.0</v>
@@ -5437,7 +5437,7 @@
         <v>410000000.0</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>118000000.0</v>
+        <v>105543000.0</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>104062000.0</v>
